--- a/test/1. 各院彙整資料/理學院.xlsx
+++ b/test/1. 各院彙整資料/理學院.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EB06F5-C6A3-456A-B459-4ED6D229D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55E059F-41E5-44EE-B87C-6DA4A8377D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{262DC93F-680A-47FE-B332-7C5D47A014AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD22B229-8094-489B-8104-E6F1E6EA4028}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="小結" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="5" r:id="rId2"/>
+    <sheet name="1.1.1.2 學士班個人申請入學錄取率" sheetId="6" r:id="rId3"/>
+    <sheet name="1.1.1.3 碩士班招生錄取率" sheetId="7" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.1.2 學士班個人申請入學錄取率'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.1.1.3 碩士班招生錄取率'!$A$1:$G$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +41,321 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+  <si>
+    <t>理學院</t>
+  </si>
+  <si>
+    <t>應數系</t>
+  </si>
+  <si>
+    <t>心理系</t>
+  </si>
+  <si>
+    <t>神科所</t>
+  </si>
+  <si>
+    <t>應物所</t>
+  </si>
+  <si>
+    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.2 學士班個人申請入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.3 碩士班招生錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.4 博士班招生錄取率</t>
+  </si>
+  <si>
+    <t>1.1.2.1 學士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.2 碩士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.3 博士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.4 學士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.5 碩士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.6 博士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.3.1 碩士班招收本系畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.2 碩士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.3 博士班招收本系所畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.2.1.1 本國籍學士班新生就學穩定率</t>
+  </si>
+  <si>
+    <t>1.2.2.1 學士班至外系修讀輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.2 學士班至外系修讀雙主修比率</t>
+  </si>
+  <si>
+    <t>1.2.2.3 學士班開放外系修讀輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.4 學士班開放外系修讀雙主修比率</t>
+  </si>
+  <si>
+    <t>1.2.2.5 學士班每學年修畢輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.6 學士班每學年修畢雙主修比率</t>
+  </si>
+  <si>
+    <t>1.3.1.1 學士班獲國科會大專學生補助比率</t>
+  </si>
+  <si>
+    <t>1.3.1.2 博士班獲國科會赴國外研究補助比率</t>
+  </si>
+  <si>
+    <t>1.3.1.3 博士班獲國科會人社博士論文獎比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.2 碩士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.3 博士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.4 學士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.5 碩士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.6 博士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.7 外籍學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.8 陸生學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.9 僑生學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.5.1.1 學士班出國交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.2 碩博士班出國交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.3 學士班來校交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.4 碩博士班來校交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.5 學士班外籍學位生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.6 學士班陸生學位生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.7 學士班僑生學位生比率</t>
+  </si>
+  <si>
+    <t>1.6.1.1 學士班參與國內實習比率</t>
+  </si>
+  <si>
+    <t>1.6.1.2 學士班參與海外實習比率</t>
+  </si>
+  <si>
+    <t>1.7.1.1 學士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.2 碩士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.3 博士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.4 碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>1.7.1.5 博士班平均修業年限</t>
+  </si>
+  <si>
+    <t>1.8.1.1 學士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.2 學士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.3 碩士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.4 碩士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.5 博士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.6 博士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>2.1.1.1 平均學士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.1.1.2 平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.1.1.3 開設數位教學創新課程之情形</t>
+  </si>
+  <si>
+    <t>2.1.2.1 教學單位多元人學分數</t>
+  </si>
+  <si>
+    <t>2.2.1.1 平均每人中文期刊論文出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.2 平均每人外文期刊論文出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.3 平均每人中文專書出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.4 平均每人中文會議論文發表數</t>
+  </si>
+  <si>
+    <t>2.2.1.5 平均每人外文會議論文發表數</t>
+  </si>
+  <si>
+    <t>2.2.1.6 平均每人獲國科會研究計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.7 平均每人獲國科會研究計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.1.8 平均每人獲非國科會研究計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.9 平均每人獲非國科會研究計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.2.1 校內學術獲獎比例</t>
+  </si>
+  <si>
+    <t>2.2.2.2 校外學術獲獎比例</t>
+  </si>
+  <si>
+    <t>2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次</t>
+  </si>
+  <si>
+    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.1.1.1 各系所每學年生師比率</t>
+  </si>
+  <si>
+    <t>3.1.1.2 外籍師資比率</t>
+  </si>
+  <si>
+    <t>3.1.2.1 各系所每學年新進教師比率</t>
+  </si>
+  <si>
+    <t>3.1.2.2 各系所未來五年內退休教師比率</t>
+  </si>
+  <si>
+    <t>3.2.1.1 舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>3.2.1.2 學院執行高教深耕（國際性）計畫之執行率</t>
+  </si>
+  <si>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>700 理學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>700 理學院</t>
+  </si>
+  <si>
+    <t>701 應用數學系</t>
+  </si>
+  <si>
+    <t>702 心理學系</t>
+  </si>
+  <si>
+    <t>754 神經科學研究所</t>
+  </si>
+  <si>
+    <t>755 應用物理研究所</t>
+  </si>
+  <si>
+    <t>應物所</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00%;\-0.00%;&quot;—&quot;"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -49,16 +369,135 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,19 +505,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{E136C943-3957-4D3C-884D-695AB28F5D1F}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{35327D13-E47C-4BF2-A140-F40E879133C9}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{EE33D790-2BF7-42C1-94C0-E2D0E28F7E97}"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,6 +587,2154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB9E-4B40-AEA4-1850A9109163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB9E-4B40-AEA4-1850A9109163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB9E-4B40-AEA4-1850A9109163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DB9E-4B40-AEA4-1850A9109163}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DB9E-4B40-AEA4-1850A9109163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDAD-439A-A8F2-F1A2F2052B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDAD-439A-A8F2-F1A2F2052B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDAD-439A-A8F2-F1A2F2052B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EDAD-439A-A8F2-F1A2F2052B98}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EDAD-439A-A8F2-F1A2F2052B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C66D-40BC-B7F3-2E8E810F3938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C66D-40BC-B7F3-2E8E810F3938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C66D-40BC-B7F3-2E8E810F3938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C66D-40BC-B7F3-2E8E810F3938}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應物所</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C66D-40BC-B7F3-2E8E810F3938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5A9541-3EA9-4680-AB43-EAA22123C813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DA0164-CFC4-4B84-B66E-0DE3ACB7D9C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730C7371-FACB-4154-8377-5048D1DED9F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,15 +3033,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A642FF2-E85E-473C-85C3-D89B806A2057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10037F8E-7ABE-40C1-A0CD-16F1B7833C6A}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{21B55D59-4C09-483E-85E7-E7CBBC01B5E8}"/>
+    <hyperlink ref="A3" location="'1.1.1.2 學士班個人申請入學錄取率'!A1" display="1.1.1.2 學士班個人申請入學錄取率" xr:uid="{5FA01FFF-1331-45D8-936D-3BAA3FE12F0E}"/>
+    <hyperlink ref="A4" location="'1.1.1.3 碩士班招生錄取率'!A1" display="1.1.1.3 碩士班招生錄取率" xr:uid="{A7575B59-C117-4A39-BC03-E16906C9E691}"/>
+    <hyperlink ref="A5" location="'1.1.1.4 博士班招生錄取率'!A1" display="1.1.1.4 博士班招生錄取率" xr:uid="{4B1C404C-C130-4AEC-98CA-657A56407286}"/>
+    <hyperlink ref="A6" location="'1.1.2.1 學士班註冊率'!A1" display="1.1.2.1 學士班註冊率" xr:uid="{00A146C1-0C7D-4DB3-8583-1A811E9CE6DD}"/>
+    <hyperlink ref="A7" location="'1.1.2.2 碩士班註冊率'!A1" display="1.1.2.2 碩士班註冊率" xr:uid="{E5E8088A-EB0D-420E-B767-E634B653940A}"/>
+    <hyperlink ref="A8" location="'1.1.2.3 博士班註冊率'!A1" display="1.1.2.3 博士班註冊率" xr:uid="{A112C12F-BB9B-4BB0-BB9A-C8F902E1926B}"/>
+    <hyperlink ref="A9" location="'1.1.2.4 學士班新生註冊率'!A1" display="1.1.2.4 學士班新生註冊率" xr:uid="{E6899C48-06DF-4943-B32E-401DC7CA68B6}"/>
+    <hyperlink ref="A10" location="'1.1.2.5 碩士班新生註冊率'!A1" display="1.1.2.5 碩士班新生註冊率" xr:uid="{FFD99836-7025-4D14-940B-71FB48B24B24}"/>
+    <hyperlink ref="A11" location="'1.1.2.6 博士班新生註冊率'!A1" display="1.1.2.6 博士班新生註冊率" xr:uid="{16D5D2F4-9081-491D-A043-F58E2392C65F}"/>
+    <hyperlink ref="A12" location="'1.1.3.1 碩士班招收本系畢業生比率'!A1" display="1.1.3.1 碩士班招收本系畢業生比率" xr:uid="{E62604BB-08D3-43D5-8D3B-92E77623FF52}"/>
+    <hyperlink ref="A13" location="'1.1.3.2 碩士班招收國內重點大學畢業生比率'!A1" display="1.1.3.2 碩士班招收國內重點大學畢業生比率" xr:uid="{372288ED-A035-4EAF-9A71-D4040ECF8984}"/>
+    <hyperlink ref="A14" location="'1.1.3.3 博士班招收本系所畢業生比率'!A1" display="1.1.3.3 博士班招收本系所畢業生比率" xr:uid="{859E90D7-2ACF-4300-B2ED-057EB4E68B67}"/>
+    <hyperlink ref="A15" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{D14DACE1-F398-42DA-BF48-7A96037B0F3F}"/>
+    <hyperlink ref="A16" location="'1.2.1.1 本國籍學士班新生就學穩定率'!A1" display="1.2.1.1 本國籍學士班新生就學穩定率" xr:uid="{46BAEE41-D118-4996-B10D-D236DB3F8714}"/>
+    <hyperlink ref="A17" location="'1.2.2.1 學士班至外系修讀輔系比率'!A1" display="1.2.2.1 學士班至外系修讀輔系比率" xr:uid="{CCBF44AD-57D4-4B33-821D-8555D40701A4}"/>
+    <hyperlink ref="A18" location="'1.2.2.2 學士班至外系修讀雙主修比率'!A1" display="1.2.2.2 學士班至外系修讀雙主修比率" xr:uid="{C16CA3D5-01A9-451C-813A-27AE7677FDD7}"/>
+    <hyperlink ref="A19" location="'1.2.2.3 學士班開放外系修讀輔系比率'!A1" display="1.2.2.3 學士班開放外系修讀輔系比率" xr:uid="{C0CC7278-D684-45E6-9DA2-B5518C06E374}"/>
+    <hyperlink ref="A20" location="'1.2.2.4 學士班開放外系修讀雙主修比率'!A1" display="1.2.2.4 學士班開放外系修讀雙主修比率" xr:uid="{E0B4C64C-E71A-4A3D-A815-C4A7C16B61F4}"/>
+    <hyperlink ref="A21" location="'1.2.2.5 學士班每學年修畢輔系比率'!A1" display="1.2.2.5 學士班每學年修畢輔系比率" xr:uid="{BEE79323-DF53-4842-8F6B-A308DD7CA0F0}"/>
+    <hyperlink ref="A22" location="'1.2.2.6 學士班每學年修畢雙主修比率'!A1" display="1.2.2.6 學士班每學年修畢雙主修比率" xr:uid="{918F38E1-A8AB-454A-95B7-3976B03D27FD}"/>
+    <hyperlink ref="A23" location="'1.3.1.1 學士班獲國科會大專學生補助比率'!A1" display="1.3.1.1 學士班獲國科會大專學生補助比率" xr:uid="{F2CFBB8D-5B27-452B-A97E-3650052B4864}"/>
+    <hyperlink ref="A24" location="'1.3.1.2 博士班獲國科會赴國外研究補助比率'!A1" display="1.3.1.2 博士班獲國科會赴國外研究補助比率" xr:uid="{C2B96953-1D7B-4958-959E-D0DAC9DB4183}"/>
+    <hyperlink ref="A25" location="'1.3.1.3 博士班獲國科會人社博士論文獎比率'!A1" display="1.3.1.3 博士班獲國科會人社博士論文獎比率" xr:uid="{720E6BEE-1AB5-455A-BB22-869F38BF82D9}"/>
+    <hyperlink ref="A26" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{4681316F-3668-496B-B599-15F8E2C64A63}"/>
+    <hyperlink ref="A27" location="'1.4.1.2 碩士班獲獎助學金平均金額'!A1" display="1.4.1.2 碩士班獲獎助學金平均金額" xr:uid="{2A5BBFF8-7D96-45ED-A27B-8E9B7FEFD52F}"/>
+    <hyperlink ref="A28" location="'1.4.1.3 博士班獲獎助學金平均金額'!A1" display="1.4.1.3 博士班獲獎助學金平均金額" xr:uid="{80B35F16-DCD7-40AD-98D4-AB685EC99FE2}"/>
+    <hyperlink ref="A29" location="'1.4.1.4 學士班出國交換獲獎學金人數比率'!A1" display="1.4.1.4 學士班出國交換獲獎學金人數比率" xr:uid="{02B871DA-DC78-4103-9CCE-FBA0286DEEE1}"/>
+    <hyperlink ref="A30" location="'1.4.1.5 碩士班出國交換獲獎學金人數比率'!A1" display="1.4.1.5 碩士班出國交換獲獎學金人數比率" xr:uid="{5C4C5ADD-487E-4049-B251-54EF29BCB27D}"/>
+    <hyperlink ref="A31" location="'1.4.1.6 博士班出國交換獲獎學金人數比率'!A1" display="1.4.1.6 博士班出國交換獲獎學金人數比率" xr:uid="{EE2CFFB9-9FF3-4A47-BB4D-494DC01DB388}"/>
+    <hyperlink ref="A32" location="'1.4.1.7 外籍學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.7 外籍學位生入學獎學金獲獎人數比率" xr:uid="{DE327600-2444-4577-A270-7245E0BCD50E}"/>
+    <hyperlink ref="A33" location="'1.4.1.8 陸生學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.8 陸生學位生入學獎學金獲獎人數比率" xr:uid="{2B886FBB-FB41-4FB2-B419-C25D6BDA26AA}"/>
+    <hyperlink ref="A34" location="'1.4.1.9 僑生學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.9 僑生學位生入學獎學金獲獎人數比率" xr:uid="{08029311-7436-4F04-8B4A-5A1F33A37AF9}"/>
+    <hyperlink ref="A35" location="'1.5.1.1 學士班出國交換學生比率'!A1" display="1.5.1.1 學士班出國交換學生比率" xr:uid="{261AA9C9-397B-4DA7-8CE9-45FFAAECDF98}"/>
+    <hyperlink ref="A36" location="'1.5.1.2 碩博士班出國交換學生比率'!A1" display="1.5.1.2 碩博士班出國交換學生比率" xr:uid="{359E942C-6E7B-4075-8842-EC642AABDEA5}"/>
+    <hyperlink ref="A37" location="'1.5.1.3 學士班來校交換學生比率'!A1" display="1.5.1.3 學士班來校交換學生比率" xr:uid="{D10DDFEA-A089-4BBA-A7B6-C1F2A0343A56}"/>
+    <hyperlink ref="A38" location="'1.5.1.4 碩博士班來校交換學生比率'!A1" display="1.5.1.4 碩博士班來校交換學生比率" xr:uid="{DE647DD3-4F12-4870-8BBA-B31210CCC689}"/>
+    <hyperlink ref="A39" location="'1.5.1.5 學士班外籍學位生比率'!A1" display="1.5.1.5 學士班外籍學位生比率" xr:uid="{D83C77C7-B438-4748-AF72-ABDC69291D12}"/>
+    <hyperlink ref="A40" location="'1.5.1.6 學士班陸生學位生比率'!A1" display="1.5.1.6 學士班陸生學位生比率" xr:uid="{A3D29D8D-8936-4A4A-A2AE-188D5A7BEE48}"/>
+    <hyperlink ref="A41" location="'1.5.1.7 學士班僑生學位生比率'!A1" display="1.5.1.7 學士班僑生學位生比率" xr:uid="{FEB1531E-5FB6-4B8B-99FC-A2A37F73E975}"/>
+    <hyperlink ref="A42" location="'1.6.1.1 學士班參與國內實習比率'!A1" display="1.6.1.1 學士班參與國內實習比率" xr:uid="{1D078769-93D8-4E63-9899-51F69347B2D2}"/>
+    <hyperlink ref="A43" location="'1.6.1.2 學士班參與海外實習比率'!A1" display="1.6.1.2 學士班參與海外實習比率" xr:uid="{AF8D1D26-7E47-442C-8397-3BF3820748E3}"/>
+    <hyperlink ref="A44" location="'1.7.1.1 學士班應屆畢業比率'!A1" display="1.7.1.1 學士班應屆畢業比率" xr:uid="{3BC70096-2719-4B74-A9B4-3DBB8A196AE1}"/>
+    <hyperlink ref="A45" location="'1.7.1.2 碩士班應屆畢業比率'!A1" display="1.7.1.2 碩士班應屆畢業比率" xr:uid="{4EA4AAA1-E83B-4F2C-9CBA-F5F554A7A85E}"/>
+    <hyperlink ref="A46" location="'1.7.1.3 博士班應屆畢業比率'!A1" display="1.7.1.3 博士班應屆畢業比率" xr:uid="{400BFDD6-F0C7-4282-9396-FDDDF5357B84}"/>
+    <hyperlink ref="A47" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{F15B0AD9-8149-4FAE-AB3C-1DAB52EAEFC3}"/>
+    <hyperlink ref="A48" location="'1.7.1.5 博士班平均修業年限'!A1" display="1.7.1.5 博士班平均修業年限" xr:uid="{84521036-5F90-4BB0-B70B-A8408DBD3758}"/>
+    <hyperlink ref="A49" location="'1.8.1.1 學士班畢業一年後之就業率'!A1" display="1.8.1.1 學士班畢業一年後之就業率" xr:uid="{4289B28E-706E-43F5-A24C-4688BFACA581}"/>
+    <hyperlink ref="A50" location="'1.8.1.2 學士班畢業三年後之就業率'!A1" display="1.8.1.2 學士班畢業三年後之就業率" xr:uid="{C1B517C9-6216-4860-9F66-8DAA01FB03B7}"/>
+    <hyperlink ref="A51" location="'1.8.1.3 碩士班畢業一年後之就業率'!A1" display="1.8.1.3 碩士班畢業一年後之就業率" xr:uid="{95D268A7-785E-41C2-9546-D8E3EC2B8A4B}"/>
+    <hyperlink ref="A52" location="'1.8.1.4 碩士班畢業三年後之就業率'!A1" display="1.8.1.4 碩士班畢業三年後之就業率" xr:uid="{E00A888A-F129-44FD-BB69-C6BDCD4AC44A}"/>
+    <hyperlink ref="A53" location="'1.8.1.5 博士班畢業一年後之就業率'!A1" display="1.8.1.5 博士班畢業一年後之就業率" xr:uid="{157AF2AA-1FA5-44FE-A7E8-9D5FD0D13599}"/>
+    <hyperlink ref="A54" location="'1.8.1.6 博士班畢業三年後之就業率'!A1" display="1.8.1.6 博士班畢業三年後之就業率" xr:uid="{F771771B-2203-458B-A6D6-F6AB1728CF72}"/>
+    <hyperlink ref="A55" location="'2.1.1.1 平均學士班修課學生人數'!A1" display="2.1.1.1 平均學士班修課學生人數" xr:uid="{0B9C0D9A-46A6-4B08-A377-C72CECC513FC}"/>
+    <hyperlink ref="A56" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{39F663D9-42CE-497D-AB9D-2C069E786409}"/>
+    <hyperlink ref="A57" location="'2.1.1.3 開設數位教學創新課程之情形'!A1" display="2.1.1.3 開設數位教學創新課程之情形" xr:uid="{64913CAE-C4C7-48B6-B693-127AC146C2BC}"/>
+    <hyperlink ref="A58" location="'2.1.2.1 教學單位多元人學分數'!A1" display="2.1.2.1 教學單位多元人學分數" xr:uid="{C3FA03AA-C857-4F61-B703-EFB79A69B52E}"/>
+    <hyperlink ref="A59" location="'2.2.1.1 平均每人中文期刊論文出版數'!A1" display="2.2.1.1 平均每人中文期刊論文出版數" xr:uid="{B5A0B18A-4EF7-4433-BB1F-D3502650E7F5}"/>
+    <hyperlink ref="A60" location="'2.2.1.2 平均每人外文期刊論文出版數'!A1" display="2.2.1.2 平均每人外文期刊論文出版數" xr:uid="{DDC16E3D-E220-42C3-B68F-63D8983FD646}"/>
+    <hyperlink ref="A61" location="'2.2.1.3 平均每人中文專書出版數'!A1" display="2.2.1.3 平均每人中文專書出版數" xr:uid="{C7DFB183-4910-48E3-B803-1B8776D82CC2}"/>
+    <hyperlink ref="A62" location="'2.2.1.4 平均每人中文會議論文發表數'!A1" display="2.2.1.4 平均每人中文會議論文發表數" xr:uid="{4937DC9C-E519-46CB-8306-FADD2720DAC8}"/>
+    <hyperlink ref="A63" location="'2.2.1.5 平均每人外文會議論文發表數'!A1" display="2.2.1.5 平均每人外文會議論文發表數" xr:uid="{3788B2CB-3C7A-4819-875E-2ED4FC5E4227}"/>
+    <hyperlink ref="A64" location="'2.2.1.6 平均每人獲國科會研究計畫補助件數'!A1" display="2.2.1.6 平均每人獲國科會研究計畫補助件數" xr:uid="{7F0AFD7B-4DEA-475B-84B6-6E5A9B55EE83}"/>
+    <hyperlink ref="A65" location="'2.2.1.7 平均每人獲國科會研究計畫補助金額'!A1" display="2.2.1.7 平均每人獲國科會研究計畫補助金額" xr:uid="{221C8372-38F9-4081-B143-7887208E4727}"/>
+    <hyperlink ref="A66" location="'2.2.1.8 平均每人獲非國科會研究計畫補助件數'!A1" display="2.2.1.8 平均每人獲非國科會研究計畫補助件數" xr:uid="{CE1117A8-261A-408D-B0AF-A85DFD943D20}"/>
+    <hyperlink ref="A67" location="'2.2.1.9 平均每人獲非國科會研究計畫補助金額'!A1" display="2.2.1.9 平均每人獲非國科會研究計畫補助金額" xr:uid="{E25888C4-2142-4324-932A-CF3FD7E8F159}"/>
+    <hyperlink ref="A68" location="'2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數'!A1" display="2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數" xr:uid="{470CCAD9-778E-4D60-95B8-3C73B94869B4}"/>
+    <hyperlink ref="A69" location="'2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額'!A1" display="2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額" xr:uid="{D33B4E77-2244-432C-9441-B9D95459B688}"/>
+    <hyperlink ref="A70" location="'2.2.2.1 校內學術獲獎比例'!A1" display="2.2.2.1 校內學術獲獎比例" xr:uid="{6B1C3E61-1D2C-4C1F-9640-BB08462379F6}"/>
+    <hyperlink ref="A71" location="'2.2.2.2 校外學術獲獎比例'!A1" display="2.2.2.2 校外學術獲獎比例" xr:uid="{75B3F96A-BF56-466B-A4AF-06EC7D3BB5A1}"/>
+    <hyperlink ref="A72" location="'2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次'!A1" display="2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次" xr:uid="{E9347BB1-E8C7-4C7B-AD3E-22DC97874837}"/>
+    <hyperlink ref="A73" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{C20A4F88-571B-4C70-8881-2FB1DC3EF51E}"/>
+    <hyperlink ref="A74" location="'3.1.1.1 各系所每學年生師比率'!A1" display="3.1.1.1 各系所每學年生師比率" xr:uid="{304E79B8-458C-460F-AF39-AD250E647480}"/>
+    <hyperlink ref="A75" location="'3.1.1.2 外籍師資比率'!A1" display="3.1.1.2 外籍師資比率" xr:uid="{C88DB170-EB9E-4BB1-BFC1-DE4C0CED7CC1}"/>
+    <hyperlink ref="A76" location="'3.1.2.1 各系所每學年新進教師比率'!A1" display="3.1.2.1 各系所每學年新進教師比率" xr:uid="{1A9C44C4-D0CA-47C3-BDFE-7B9AC366EE16}"/>
+    <hyperlink ref="A77" location="'3.1.2.2 各系所未來五年內退休教師比率'!A1" display="3.1.2.2 各系所未來五年內退休教師比率" xr:uid="{7112E97F-611F-496D-A44D-2B259B3FE499}"/>
+    <hyperlink ref="A78" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{37C12225-7FF5-428E-81C9-E652366AC37F}"/>
+    <hyperlink ref="A79" location="'3.2.1.2 學院執行高教深耕（國際性）計畫之執行率'!A1" display="3.2.1.2 學院執行高教深耕（國際性）計畫之執行率" xr:uid="{B38D1E9D-0D3E-4CE1-BA21-3102EDCB8C5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9AA40F-3ED4-4148-88AF-95DC287582F3}">
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G7" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$7, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CCF495-1406-4A8E-8D46-1CC5DA745EA0}">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f>IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$7, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f>IF(C4="","—",_xlfn.RANK.EQ(C4,$C$3:$C$7, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f>IF(C5="","—",_xlfn.RANK.EQ(C5,$C$3:$C$7, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f>IF(C6="","—",_xlfn.RANK.EQ(C6,$C$3:$C$7, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <f>IF(C7="","—",_xlfn.RANK.EQ(C7,$C$3:$C$7, TRUE))</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC000F85-0880-4014-96EB-E69FEA5F4793}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G7" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$7, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+        <filter val="999"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test/1. 各院彙整資料/理學院.xlsx
+++ b/test/1. 各院彙整資料/理學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85AD11-9C31-4DB5-9ACF-688876A19C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE5DD92-940A-494A-B9A8-3A573F3522CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{CB20C780-D124-432F-BFC0-0DCB94D4053C}"/>
+    <workbookView xWindow="3510" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{CB20C780-D124-432F-BFC0-0DCB94D4053C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="27">
   <si>
     <t>理學院</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>700 理學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>700 理學院</t>
   </si>
   <si>
     <t>701 應用數學系</t>
@@ -461,25 +458,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -487,14 +481,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -502,7 +496,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F6F8-4C0D-8EA3-6DE73616A98D}"/>
+              <c16:uniqueId val="{00000000-B0C5-4A77-AF38-C25330C1629D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -537,25 +531,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -563,14 +554,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -578,7 +569,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F6F8-4C0D-8EA3-6DE73616A98D}"/>
+              <c16:uniqueId val="{00000001-B0C5-4A77-AF38-C25330C1629D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -613,25 +604,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -639,14 +627,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -654,7 +642,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F6F8-4C0D-8EA3-6DE73616A98D}"/>
+              <c16:uniqueId val="{00000002-B0C5-4A77-AF38-C25330C1629D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -765,7 +753,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F6F8-4C0D-8EA3-6DE73616A98D}"/>
+                  <c16:uniqueId val="{00000003-B0C5-4A77-AF38-C25330C1629D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -837,25 +825,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -863,14 +848,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$7</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -879,7 +864,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F6F8-4C0D-8EA3-6DE73616A98D}"/>
+              <c16:uniqueId val="{00000004-B0C5-4A77-AF38-C25330C1629D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1160,25 +1145,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1186,14 +1168,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1201,7 +1183,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05CA-4821-BD7A-BBFEF4702DBD}"/>
+              <c16:uniqueId val="{00000000-92DD-487C-A290-AB87BB8FB14F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1236,25 +1218,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1262,14 +1241,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1277,7 +1256,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-05CA-4821-BD7A-BBFEF4702DBD}"/>
+              <c16:uniqueId val="{00000001-92DD-487C-A290-AB87BB8FB14F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1312,25 +1291,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1338,14 +1314,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1353,7 +1329,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-05CA-4821-BD7A-BBFEF4702DBD}"/>
+              <c16:uniqueId val="{00000002-92DD-487C-A290-AB87BB8FB14F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1464,7 +1440,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-05CA-4821-BD7A-BBFEF4702DBD}"/>
+                  <c16:uniqueId val="{00000003-92DD-487C-A290-AB87BB8FB14F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1536,25 +1512,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1562,14 +1535,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$7</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1578,7 +1551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-05CA-4821-BD7A-BBFEF4702DBD}"/>
+              <c16:uniqueId val="{00000004-92DD-487C-A290-AB87BB8FB14F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1859,25 +1832,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1885,14 +1855,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1900,7 +1870,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-38CA-4F62-98EA-C334A9D04906}"/>
+              <c16:uniqueId val="{00000000-12FF-4AA4-A1BB-42C3B5390F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1935,25 +1905,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1961,14 +1928,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1976,7 +1943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38CA-4F62-98EA-C334A9D04906}"/>
+              <c16:uniqueId val="{00000001-12FF-4AA4-A1BB-42C3B5390F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2011,25 +1978,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2037,14 +2001,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2052,7 +2016,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-38CA-4F62-98EA-C334A9D04906}"/>
+              <c16:uniqueId val="{00000002-12FF-4AA4-A1BB-42C3B5390F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2163,7 +2127,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-38CA-4F62-98EA-C334A9D04906}"/>
+                  <c16:uniqueId val="{00000003-12FF-4AA4-A1BB-42C3B5390F29}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2235,25 +2199,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2261,14 +2222,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$7</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2277,7 +2238,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-38CA-4F62-98EA-C334A9D04906}"/>
+              <c16:uniqueId val="{00000004-12FF-4AA4-A1BB-42C3B5390F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2558,25 +2519,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2584,14 +2542,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2599,7 +2557,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BB5-4E1E-B37B-7286C304002C}"/>
+              <c16:uniqueId val="{00000000-EC53-4141-8700-6E518490D615}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2634,25 +2592,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2660,14 +2615,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2675,7 +2630,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BB5-4E1E-B37B-7286C304002C}"/>
+              <c16:uniqueId val="{00000001-EC53-4141-8700-6E518490D615}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2710,25 +2665,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2736,14 +2688,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2751,7 +2703,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8BB5-4E1E-B37B-7286C304002C}"/>
+              <c16:uniqueId val="{00000002-EC53-4141-8700-6E518490D615}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2862,7 +2814,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8BB5-4E1E-B37B-7286C304002C}"/>
+                  <c16:uniqueId val="{00000003-EC53-4141-8700-6E518490D615}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2934,25 +2886,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2960,14 +2909,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$7</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2976,7 +2925,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8BB5-4E1E-B37B-7286C304002C}"/>
+              <c16:uniqueId val="{00000004-EC53-4141-8700-6E518490D615}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3257,25 +3206,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3283,14 +3229,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3298,7 +3244,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5334-4095-BE45-90FADE12E082}"/>
+              <c16:uniqueId val="{00000000-1F5A-415C-9E0B-EF87B32AC917}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3333,25 +3279,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3359,14 +3302,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3374,7 +3317,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5334-4095-BE45-90FADE12E082}"/>
+              <c16:uniqueId val="{00000001-1F5A-415C-9E0B-EF87B32AC917}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3409,25 +3352,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3435,14 +3375,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3450,7 +3390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5334-4095-BE45-90FADE12E082}"/>
+              <c16:uniqueId val="{00000002-1F5A-415C-9E0B-EF87B32AC917}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3561,7 +3501,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5334-4095-BE45-90FADE12E082}"/>
+                  <c16:uniqueId val="{00000003-1F5A-415C-9E0B-EF87B32AC917}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3633,25 +3573,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3659,14 +3596,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$7</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3675,7 +3612,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5334-4095-BE45-90FADE12E082}"/>
+              <c16:uniqueId val="{00000004-1F5A-415C-9E0B-EF87B32AC917}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3956,25 +3893,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3982,14 +3916,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3997,7 +3931,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3392-476A-BBC6-2EAE20A09E3B}"/>
+              <c16:uniqueId val="{00000000-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4032,25 +3966,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4058,14 +3989,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4073,7 +4004,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3392-476A-BBC6-2EAE20A09E3B}"/>
+              <c16:uniqueId val="{00000001-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4108,25 +4039,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4134,14 +4062,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4149,7 +4077,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3392-476A-BBC6-2EAE20A09E3B}"/>
+              <c16:uniqueId val="{00000002-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4260,7 +4188,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3392-476A-BBC6-2EAE20A09E3B}"/>
+                  <c16:uniqueId val="{00000003-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4332,25 +4260,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4358,14 +4283,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$7</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4374,7 +4299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3392-476A-BBC6-2EAE20A09E3B}"/>
+              <c16:uniqueId val="{00000004-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4655,25 +4580,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4681,14 +4603,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4696,7 +4618,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-186D-4542-86CC-8DB14D3D9C40}"/>
+              <c16:uniqueId val="{00000000-19F0-4831-9CD5-27F43318BFED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4731,25 +4653,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4757,14 +4676,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4772,7 +4691,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-186D-4542-86CC-8DB14D3D9C40}"/>
+              <c16:uniqueId val="{00000001-19F0-4831-9CD5-27F43318BFED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4807,25 +4726,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4833,14 +4749,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4848,7 +4764,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-186D-4542-86CC-8DB14D3D9C40}"/>
+              <c16:uniqueId val="{00000002-19F0-4831-9CD5-27F43318BFED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4959,7 +4875,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-186D-4542-86CC-8DB14D3D9C40}"/>
+                  <c16:uniqueId val="{00000003-19F0-4831-9CD5-27F43318BFED}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5031,25 +4947,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>理學院</c:v>
+                  <c:v>應數系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>應數系</c:v>
+                  <c:v>心理系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>心理系</c:v>
+                  <c:v>神科所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
@@ -5057,14 +4970,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$7</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5073,7 +4986,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-186D-4542-86CC-8DB14D3D9C40}"/>
+              <c16:uniqueId val="{00000004-19F0-4831-9CD5-27F43318BFED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5302,7 +5215,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EC8D87-C951-4FEC-80ED-F405AB05329D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31C6D67-07C1-411B-9AEE-84732766D40F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5248,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5727A653-AFCB-47D2-9A2B-5A1BF1AA1FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9366B1C5-534B-46D6-8F8F-84CA32E3BDF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5368,7 +5281,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A82569-B2A1-49D8-B526-E0ABE5118A76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266C7420-7D17-4F86-A89E-6ED51C73EFBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5401,7 +5314,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F52AE96-C5B3-4E4F-BC1D-BE09E0F8F9D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDC383E-C0CD-4301-BE0E-027911D01635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5434,7 +5347,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9045DE-2DD4-428E-8893-3DE72039D191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7049F609-DC73-41F1-989C-C4D318AD2560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5467,7 +5380,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07581B94-04A3-4DB0-B629-F1588EFB0DB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98FE632-C8F8-483A-A7D6-476DDB9379B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5500,7 +5413,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9253B94-41A9-4F12-90FF-2CD84168DB52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83355CDD-22CB-4E42-9CE5-58EDE13AF1B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5550,7 +5463,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -5567,7 +5480,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -5953,25 +5866,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{AE386E0C-3590-4FA1-A565-5EEB675B153C}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{F2E8BA19-25C6-4BD7-A38B-842393767DB1}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{12215DB1-2431-4110-95F4-BB34DCAA4135}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{83B558C1-86A0-4F0F-867A-D49FF944F412}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{3BA9470B-8D45-4D1B-8EB2-F425803D91DC}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{0CB2449F-2FD9-443F-97E1-733F80A05A4A}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{6BBA4E5F-B9DE-4D26-9033-BF887C504CE5}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{01E046FB-6760-402A-BF37-163F610C24EB}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{6BA7B2FE-1A4D-49CF-B246-2C8B687EF234}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{6E6ADBF4-6E9B-4424-8457-A867687FDD78}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{C7BF73F7-31C7-4B8B-81FF-AFDB585A3DB0}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{55F1A112-7B6D-4677-99BE-20C6BA9DCD44}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{AE9D319F-51D7-486B-BD43-847528D0D8BA}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{BBE86BB4-067C-4D2B-AE29-5C2EDFF35633}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BB2B91-81C6-4091-A749-D7A26ED91674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EEF37C-95F0-4FFC-9D2C-161D5CB9E7C1}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6026,16 +5939,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6048,7 +5959,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6061,7 +5972,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6074,39 +5985,28 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="C6" s="10">
         <v>0.05</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D6" s="10">
         <v>0.04</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E6" s="10">
         <v>0.01</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F6" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+      <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6117,12 +6017,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A40AD4-8A0C-4084-A23D-5CFC5B9ECF5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC74587A-0F98-4858-A1FC-9D65EC3ECCFD}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6177,16 +6077,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6199,7 +6097,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6212,7 +6110,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6225,39 +6123,28 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="C6" s="10">
         <v>0.05</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D6" s="10">
         <v>0.04</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E6" s="10">
         <v>0.01</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F6" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+      <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6268,12 +6155,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCAE1B1-90D1-488C-9DDD-376553D6036A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575D7EF0-C607-43CA-841D-D5CD768890D3}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6328,16 +6215,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6350,7 +6235,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6363,7 +6248,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -6376,39 +6261,28 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="C6" s="11">
         <v>0.05</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D6" s="11">
         <v>0.04</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E6" s="11">
         <v>0.01</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F6" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+      <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6419,12 +6293,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E2D705-DA54-470F-9B11-6822C25EE1AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13990A24-052E-4FC8-AD5A-0C98BFBF1784}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6479,16 +6353,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6501,7 +6373,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6514,7 +6386,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6527,39 +6399,28 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="C6" s="12">
         <v>0.05</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D6" s="12">
         <v>0.04</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E6" s="12">
         <v>0.01</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F6" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+      <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6570,12 +6431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7051A99-FC96-4221-904B-E77192C4E3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EB4C1C-B596-45B0-BA60-EF77C3A23C8E}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6630,16 +6491,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6652,7 +6511,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6665,7 +6524,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6678,39 +6537,28 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="C6" s="12">
         <v>0.05</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D6" s="12">
         <v>0.04</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E6" s="12">
         <v>0.01</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F6" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+      <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6721,12 +6569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1759B4-2A06-4301-9091-C1BAA1EEA231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8595467D-2E4F-4AB4-A6B6-E5ACA34E064C}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6767,7 +6615,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6781,16 +6629,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6803,7 +6649,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6816,7 +6662,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6829,39 +6675,28 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="C6" s="12">
         <v>0.05</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D6" s="12">
         <v>0.04</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E6" s="12">
         <v>0.01</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F6" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+      <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6872,12 +6707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648DCF94-F67C-4F14-9E19-70A0AFC178F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126BD79-7711-4185-A400-EF006BEBD1FA}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6918,7 +6753,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6932,16 +6767,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6954,7 +6787,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6967,7 +6800,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6980,39 +6813,28 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="C6" s="12">
         <v>0.05</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D6" s="12">
         <v>0.04</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E6" s="12">
         <v>0.01</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F6" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+      <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/理學院.xlsx
+++ b/test/1. 各院彙整資料/理學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE5DD92-940A-494A-B9A8-3A573F3522CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04DB6C-1FB8-4E50-98ED-81E408B2BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{CB20C780-D124-432F-BFC0-0DCB94D4053C}"/>
+    <workbookView xWindow="3510" yWindow="600" windowWidth="17595" windowHeight="15600" activeTab="2" xr2:uid="{CB20C780-D124-432F-BFC0-0DCB94D4053C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
     <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$6</definedName>
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="29">
   <si>
     <t>理學院</t>
   </si>
@@ -144,6 +141,13 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,10 +490,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,10 +572,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,10 +654,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,10 +884,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,10 +1213,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,10 +1295,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,10 +1377,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,10 +1607,19 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,10 +1936,19 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,10 +2018,19 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,10 +2100,19 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,10 +2330,19 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,72 +5548,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -5928,18 +5974,20 @@
         <v>19</v>
       </c>
       <c r="C2" s="10">
-        <v>0.06</v>
+        <v>0.18709999999999999</v>
       </c>
       <c r="D2" s="10">
-        <v>0.06</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="E2" s="10">
-        <v>0.03</v>
+        <v>0.1633</v>
       </c>
       <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.2069</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -5948,11 +5996,21 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10">
+        <v>0.2034</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1951</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -5961,11 +6019,21 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10">
+        <v>0.2069</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.2162</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.1951</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -5974,11 +6042,21 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -5987,20 +6065,20 @@
       <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6021,7 +6099,7 @@
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6066,18 +6144,20 @@
         <v>19</v>
       </c>
       <c r="C2" s="10">
-        <v>0.06</v>
+        <v>0.18709999999999999</v>
       </c>
       <c r="D2" s="10">
-        <v>0.06</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="E2" s="10">
-        <v>0.03</v>
+        <v>0.1633</v>
       </c>
       <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.2069</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6086,11 +6166,21 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10">
+        <v>0.2034</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1951</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6099,11 +6189,21 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10">
+        <v>0.2069</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.2162</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.1951</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6112,11 +6212,21 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6125,20 +6235,20 @@
       <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6204,18 +6314,20 @@
         <v>19</v>
       </c>
       <c r="C2" s="11">
-        <v>0.06</v>
+        <v>0.18709999999999999</v>
       </c>
       <c r="D2" s="11">
-        <v>0.06</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="E2" s="11">
-        <v>0.03</v>
+        <v>0.1633</v>
       </c>
       <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.2069</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6224,11 +6336,21 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="11">
+        <v>0.2034</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.1951</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6237,11 +6359,21 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="11">
+        <v>0.2069</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.2162</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.1951</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6250,11 +6382,21 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6263,20 +6405,20 @@
       <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6711,7 +6853,7 @@
   <sheetPr codeName="工作表8"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/test/1. 各院彙整資料/理學院.xlsx
+++ b/test/1. 各院彙整資料/理學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04DB6C-1FB8-4E50-98ED-81E408B2BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F5CD6C-8AF2-4F8F-9870-FB4AD9C329F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="600" windowWidth="17595" windowHeight="15600" activeTab="2" xr2:uid="{CB20C780-D124-432F-BFC0-0DCB94D4053C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{CB20C780-D124-432F-BFC0-0DCB94D4053C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$6</definedName>
@@ -50,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="29">
-  <si>
-    <t>理學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="36">
   <si>
     <t>應數系</t>
   </si>
@@ -65,27 +62,6 @@
   </si>
   <si>
     <t>應物所</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -143,11 +119,55 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>理學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -464,21 +484,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -488,20 +496,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -509,7 +505,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0C5-4A77-AF38-C25330C1629D}"/>
+              <c16:uniqueId val="{00000000-5A7C-4040-994C-5190D79DC370}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -546,21 +542,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,20 +554,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1633</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -591,7 +563,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0C5-4A77-AF38-C25330C1629D}"/>
+              <c16:uniqueId val="{00000001-5A7C-4040-994C-5190D79DC370}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -628,21 +600,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -652,20 +612,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.20250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1951</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -673,7 +621,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B0C5-4A77-AF38-C25330C1629D}"/>
+              <c16:uniqueId val="{00000002-5A7C-4040-994C-5190D79DC370}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -737,7 +685,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -784,7 +736,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B0C5-4A77-AF38-C25330C1629D}"/>
+                  <c16:uniqueId val="{00000003-5A7C-4040-994C-5190D79DC370}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -793,7 +745,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -858,21 +814,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -882,20 +826,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.18709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -904,7 +836,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B0C5-4A77-AF38-C25330C1629D}"/>
+              <c16:uniqueId val="{00000004-5A7C-4040-994C-5190D79DC370}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1187,21 +1119,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1211,20 +1131,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1232,7 +1140,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92DD-487C-A290-AB87BB8FB14F}"/>
+              <c16:uniqueId val="{00000000-9E6A-4FBF-952D-330023F8813D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,21 +1177,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1293,20 +1189,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1633</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1314,7 +1198,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-92DD-487C-A290-AB87BB8FB14F}"/>
+              <c16:uniqueId val="{00000001-9E6A-4FBF-952D-330023F8813D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1351,21 +1235,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1375,20 +1247,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.20250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1951</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1396,7 +1256,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-92DD-487C-A290-AB87BB8FB14F}"/>
+              <c16:uniqueId val="{00000002-9E6A-4FBF-952D-330023F8813D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1460,7 +1320,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1507,7 +1371,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-92DD-487C-A290-AB87BB8FB14F}"/>
+                  <c16:uniqueId val="{00000003-9E6A-4FBF-952D-330023F8813D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1516,7 +1380,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1581,21 +1449,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1605,20 +1461,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.18709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1627,7 +1471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-92DD-487C-A290-AB87BB8FB14F}"/>
+              <c16:uniqueId val="{00000004-9E6A-4FBF-952D-330023F8813D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1910,21 +1754,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1934,20 +1766,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1955,7 +1775,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12FF-4AA4-A1BB-42C3B5390F29}"/>
+              <c16:uniqueId val="{00000000-C00F-49D4-A7E9-F8308265FCA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1992,21 +1812,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2016,20 +1824,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1633</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2037,7 +1833,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-12FF-4AA4-A1BB-42C3B5390F29}"/>
+              <c16:uniqueId val="{00000001-C00F-49D4-A7E9-F8308265FCA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2074,21 +1870,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2098,20 +1882,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.20250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1951</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2119,7 +1891,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-12FF-4AA4-A1BB-42C3B5390F29}"/>
+              <c16:uniqueId val="{00000002-C00F-49D4-A7E9-F8308265FCA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2183,7 +1955,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2230,7 +2006,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-12FF-4AA4-A1BB-42C3B5390F29}"/>
+                  <c16:uniqueId val="{00000003-C00F-49D4-A7E9-F8308265FCA6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2239,7 +2015,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2304,21 +2084,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2328,20 +2096,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.18709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2350,7 +2106,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-12FF-4AA4-A1BB-42C3B5390F29}"/>
+              <c16:uniqueId val="{00000004-C00F-49D4-A7E9-F8308265FCA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2633,21 +2389,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2657,19 +2401,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC53-4141-8700-6E518490D615}"/>
+              <c16:uniqueId val="{00000000-DDF9-4278-A5CC-B7F6E63B0262}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2706,21 +2447,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2730,19 +2459,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC53-4141-8700-6E518490D615}"/>
+              <c16:uniqueId val="{00000001-DDF9-4278-A5CC-B7F6E63B0262}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2779,21 +2505,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2803,19 +2517,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC53-4141-8700-6E518490D615}"/>
+              <c16:uniqueId val="{00000002-DDF9-4278-A5CC-B7F6E63B0262}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2879,7 +2590,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2926,7 +2641,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EC53-4141-8700-6E518490D615}"/>
+                  <c16:uniqueId val="{00000003-DDF9-4278-A5CC-B7F6E63B0262}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2935,7 +2650,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3000,21 +2719,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3024,12 +2731,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,7 +2741,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC53-4141-8700-6E518490D615}"/>
+              <c16:uniqueId val="{00000004-DDF9-4278-A5CC-B7F6E63B0262}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3320,21 +3024,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3344,19 +3036,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F5A-415C-9E0B-EF87B32AC917}"/>
+              <c16:uniqueId val="{00000000-F24C-4FCF-86D8-C008AA63E524}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3393,21 +3082,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3417,19 +3094,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F5A-415C-9E0B-EF87B32AC917}"/>
+              <c16:uniqueId val="{00000001-F24C-4FCF-86D8-C008AA63E524}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3466,21 +3140,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3490,19 +3152,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1F5A-415C-9E0B-EF87B32AC917}"/>
+              <c16:uniqueId val="{00000002-F24C-4FCF-86D8-C008AA63E524}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3566,7 +3225,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3613,7 +3276,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1F5A-415C-9E0B-EF87B32AC917}"/>
+                  <c16:uniqueId val="{00000003-F24C-4FCF-86D8-C008AA63E524}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3622,7 +3285,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3687,21 +3354,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3711,12 +3366,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,7 +3376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1F5A-415C-9E0B-EF87B32AC917}"/>
+              <c16:uniqueId val="{00000004-F24C-4FCF-86D8-C008AA63E524}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4007,21 +3659,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4031,19 +3671,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
+              <c16:uniqueId val="{00000000-B3A0-4D0B-8C36-4441F7F26834}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4080,21 +3717,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4104,19 +3729,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
+              <c16:uniqueId val="{00000001-B3A0-4D0B-8C36-4441F7F26834}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4153,21 +3775,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4177,19 +3787,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
+              <c16:uniqueId val="{00000002-B3A0-4D0B-8C36-4441F7F26834}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4253,7 +3860,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4300,7 +3911,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
+                  <c16:uniqueId val="{00000003-B3A0-4D0B-8C36-4441F7F26834}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4309,7 +3920,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4374,21 +3989,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4398,12 +4001,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4411,7 +4011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4CBC-4BD0-AF8E-59A965DE4E7A}"/>
+              <c16:uniqueId val="{00000004-B3A0-4D0B-8C36-4441F7F26834}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4694,21 +4294,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4718,19 +4306,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19F0-4831-9CD5-27F43318BFED}"/>
+              <c16:uniqueId val="{00000000-21F0-4B00-B9CA-9741D4888CE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4767,21 +4352,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4791,19 +4364,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-19F0-4831-9CD5-27F43318BFED}"/>
+              <c16:uniqueId val="{00000001-21F0-4B00-B9CA-9741D4888CE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4840,21 +4410,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4864,19 +4422,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-19F0-4831-9CD5-27F43318BFED}"/>
+              <c16:uniqueId val="{00000002-21F0-4B00-B9CA-9741D4888CE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4940,7 +4495,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4987,7 +4546,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-19F0-4831-9CD5-27F43318BFED}"/>
+                  <c16:uniqueId val="{00000003-21F0-4B00-B9CA-9741D4888CE1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4996,7 +4555,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5061,21 +4624,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>應數系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>心理系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>神科所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>應物所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5085,12 +4636,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5098,7 +4646,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-19F0-4831-9CD5-27F43318BFED}"/>
+              <c16:uniqueId val="{00000004-21F0-4B00-B9CA-9741D4888CE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5327,7 +4875,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31C6D67-07C1-411B-9AEE-84732766D40F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76FE3EB-073A-40BC-8740-1A5AB94BFB4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5360,7 +4908,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9366B1C5-534B-46D6-8F8F-84CA32E3BDF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328B53D5-2D89-4459-A433-95CD40FBB3CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +4941,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266C7420-7D17-4F86-A89E-6ED51C73EFBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C0E243-E3D6-4D09-9CC6-19D076767FDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5426,7 +4974,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDC383E-C0CD-4301-BE0E-027911D01635}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C9B3A4-783D-49B9-B291-D5AB01ACF4AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5459,7 +5007,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7049F609-DC73-41F1-989C-C4D318AD2560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E767F6-B6B6-40CE-85E9-A989EB2438E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5492,7 +5040,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98FE632-C8F8-483A-A7D6-476DDB9379B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEF7873-0CBB-418C-A6AF-00048A577948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5525,7 +5073,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83355CDD-22CB-4E42-9CE5-58EDE13AF1B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6280591-5284-4DAE-A323-692A09B4E6F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5843,94 +5391,153 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{98F4CBC6-2B1E-47FD-AF89-C08BE1531676}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA48AA-4817-4BD7-9F37-B87CB1574AC3}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{01E046FB-6760-402A-BF37-163F610C24EB}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{6BA7B2FE-1A4D-49CF-B246-2C8B687EF234}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{6E6ADBF4-6E9B-4424-8457-A867687FDD78}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{C7BF73F7-31C7-4B8B-81FF-AFDB585A3DB0}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{55F1A112-7B6D-4677-99BE-20C6BA9DCD44}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{AE9D319F-51D7-486B-BD43-847528D0D8BA}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{BBE86BB4-067C-4D2B-AE29-5C2EDFF35633}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{FBF62CBB-4C38-4835-80D0-19FBDD24EB65}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{8841C9A0-2084-4E7D-B9F6-73CE0C8382AF}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{468DB7C7-C9DF-4C4A-A64D-236E9E09F5CF}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{454E4ECA-093E-4428-9535-FEA66CA7B9B0}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F9A7D639-1FCA-4254-8C08-EDD72CEE45BD}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{535E11AB-4F83-411B-9FDC-5E8157E7CF0F}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{555EBE5B-34E0-4DB6-BD58-6A0A14A6E2AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EEF37C-95F0-4FFC-9D2C-161D5CB9E7C1}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF1101F-11F4-4018-84F0-05E3ED25CBE5}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5943,150 +5550,161 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.1633</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.2069</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.2034</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.1951</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.2069</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.21049999999999999</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.2162</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.1951</v>
-      </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6095,12 +5713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC74587A-0F98-4858-A1FC-9D65EC3ECCFD}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C48F08-2D46-45F6-A71C-A0BD8FB467E5}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6113,150 +5731,161 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.1633</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.2069</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.2034</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.1951</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.2069</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.21049999999999999</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.2162</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.1951</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6265,12 +5894,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575D7EF0-C607-43CA-841D-D5CD768890D3}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30A0897-28C3-481C-84CC-C991B9700633}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6283,150 +5912,161 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.1633</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.2069</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.2034</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.1951</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.2069</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.21049999999999999</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.2162</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.1951</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6435,12 +6075,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13990A24-052E-4FC8-AD5A-0C98BFBF1784}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831AF2C7-570B-46EB-8737-3AFA34B282D3}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6453,118 +6093,161 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6573,12 +6256,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EB4C1C-B596-45B0-BA60-EF77C3A23C8E}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72266C0E-A1A2-44FB-B13A-BCE348AF816D}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6591,118 +6274,161 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6711,12 +6437,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8595467D-2E4F-4AB4-A6B6-E5ACA34E064C}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA82D96E-F406-4F69-9DDE-5FCFDC36AC4F}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6729,118 +6455,161 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6849,12 +6618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126BD79-7711-4185-A400-EF006BEBD1FA}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15538C27-96CA-4778-B823-C053A5A4C413}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6867,118 +6636,161 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
       <sortCondition descending="1" ref="G1:G6"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/理學院.xlsx
+++ b/test/1. 各院彙整資料/理學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F5CD6C-8AF2-4F8F-9870-FB4AD9C329F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F807DAE-78C5-4560-BC0F-7CFFDB2C95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{CB20C780-D124-432F-BFC0-0DCB94D4053C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{87376FA0-FF56-4A6F-8523-BCA4BC267A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$6</definedName>
@@ -50,76 +50,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
+  <si>
+    <t>700 理學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>理學院</t>
+  </si>
+  <si>
+    <t>701 應用數學系</t>
+  </si>
   <si>
     <t>應數系</t>
+  </si>
+  <si>
+    <t>702 心理學系</t>
   </si>
   <si>
     <t>心理系</t>
   </si>
   <si>
-    <t>神科所</t>
+    <t>754 神經科學研究所</t>
   </si>
   <si>
-    <t>應物所</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>700 理學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>701 應用數學系</t>
-  </si>
-  <si>
-    <t>702 心理學系</t>
-  </si>
-  <si>
-    <t>754 神經科學研究所</t>
+    <t>神科所</t>
   </si>
   <si>
     <t>755 應用物理研究所</t>
   </si>
   <si>
     <t>應物所</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>理學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -164,21 +124,102 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>無資料。</t>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>應物所</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為18.71%，無低於（或等於）院三年均值者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為33,191，高於院三年均值者計有1個系，為應數系38,599。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為9.08，高於院三年均值者計有1個系，為應數系9.77。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為53.33%，高於院三年均值者計有2個系，為應數系66.67%、心理系60%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為3.19，低於院三年均值者計有3個系，為應物所2.5、神科所3、應數系3.18。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為1，包含心理系1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為1.67，包含心理系0.67、應數系0.33、應物所0.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -361,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,15 +437,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{874F8DA6-7F0B-46F2-843E-37405BF68B29}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{1752484D-AA15-4189-8647-86A0134CF4B6}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{49E2D89B-A45D-4582-ABC1-06AF67C9A6CB}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{CC5B6395-C7ED-4AA4-8FE3-44AD8039FC5E}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{2AD0CDD5-062E-4A20-B797-8013358B57A1}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{7F1FB8FB-487B-4970-8B4F-310671D30260}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,8 +537,14 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -495,17 +554,23 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.26669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A7C-4040-994C-5190D79DC370}"/>
+              <c16:uniqueId val="{00000000-1F23-45AA-9F63-90CEF1A6B29D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -542,8 +607,14 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -553,17 +624,23 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.17019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A7C-4040-994C-5190D79DC370}"/>
+              <c16:uniqueId val="{00000001-1F23-45AA-9F63-90CEF1A6B29D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -600,8 +677,14 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -611,17 +694,23 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20250000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5A7C-4040-994C-5190D79DC370}"/>
+              <c16:uniqueId val="{00000002-1F23-45AA-9F63-90CEF1A6B29D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -736,7 +825,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5A7C-4040-994C-5190D79DC370}"/>
+                  <c16:uniqueId val="{00000003-1F23-45AA-9F63-90CEF1A6B29D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -814,8 +903,14 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -825,10 +920,16 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18709999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,7 +937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5A7C-4040-994C-5190D79DC370}"/>
+              <c16:uniqueId val="{00000004-1F23-45AA-9F63-90CEF1A6B29D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -936,7 +1037,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1119,8 +1220,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1130,17 +1237,23 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E6A-4FBF-952D-330023F8813D}"/>
+              <c16:uniqueId val="{00000000-CEE6-4E4C-AEE7-68A798A07675}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,8 +1290,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1188,17 +1307,23 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E6A-4FBF-952D-330023F8813D}"/>
+              <c16:uniqueId val="{00000001-CEE6-4E4C-AEE7-68A798A07675}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1235,8 +1360,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1246,17 +1377,23 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.66669999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9E6A-4FBF-952D-330023F8813D}"/>
+              <c16:uniqueId val="{00000002-CEE6-4E4C-AEE7-68A798A07675}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1371,7 +1508,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9E6A-4FBF-952D-330023F8813D}"/>
+                  <c16:uniqueId val="{00000003-CEE6-4E4C-AEE7-68A798A07675}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1449,8 +1586,14 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1460,10 +1603,16 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.5333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,7 +1620,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9E6A-4FBF-952D-330023F8813D}"/>
+              <c16:uniqueId val="{00000004-CEE6-4E4C-AEE7-68A798A07675}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1571,7 +1720,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1754,8 +1903,20 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1765,17 +1926,29 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>39986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32712</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34618.550000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C00F-49D4-A7E9-F8308265FCA6}"/>
+              <c16:uniqueId val="{00000000-0E1F-476D-A706-D65A444D63BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1812,8 +1985,20 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1823,17 +2008,29 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>39649.589999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28243.63</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32131.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C00F-49D4-A7E9-F8308265FCA6}"/>
+              <c16:uniqueId val="{00000001-0E1F-476D-A706-D65A444D63BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1870,8 +2067,20 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1881,17 +2090,29 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>36718.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30206.85</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32687.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C00F-49D4-A7E9-F8308265FCA6}"/>
+              <c16:uniqueId val="{00000002-0E1F-476D-A706-D65A444D63BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2006,7 +2227,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C00F-49D4-A7E9-F8308265FCA6}"/>
+                  <c16:uniqueId val="{00000003-0E1F-476D-A706-D65A444D63BB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2084,8 +2305,20 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2095,10 +2328,22 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>38598.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30415.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33191.129999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,7 +2351,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C00F-49D4-A7E9-F8308265FCA6}"/>
+              <c16:uniqueId val="{00000004-0E1F-476D-A706-D65A444D63BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2206,7 +2451,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2389,8 +2634,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2400,17 +2657,29 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DDF9-4278-A5CC-B7F6E63B0262}"/>
+              <c16:uniqueId val="{00000000-7404-42E1-8DA3-391CD7859E79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2447,8 +2716,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2458,17 +2739,29 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DDF9-4278-A5CC-B7F6E63B0262}"/>
+              <c16:uniqueId val="{00000001-7404-42E1-8DA3-391CD7859E79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2505,8 +2798,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2516,17 +2821,29 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DDF9-4278-A5CC-B7F6E63B0262}"/>
+              <c16:uniqueId val="{00000002-7404-42E1-8DA3-391CD7859E79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2641,7 +2958,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DDF9-4278-A5CC-B7F6E63B0262}"/>
+                  <c16:uniqueId val="{00000003-7404-42E1-8DA3-391CD7859E79}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2719,8 +3036,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2730,10 +3059,22 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,7 +3082,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DDF9-4278-A5CC-B7F6E63B0262}"/>
+              <c16:uniqueId val="{00000004-7404-42E1-8DA3-391CD7859E79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2841,7 +3182,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3024,8 +3365,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3035,17 +3388,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.029999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F24C-4FCF-86D8-C008AA63E524}"/>
+              <c16:uniqueId val="{00000000-0552-48D4-A228-BEFBDF50752F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3082,8 +3447,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3093,17 +3470,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2799999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F24C-4FCF-86D8-C008AA63E524}"/>
+              <c16:uniqueId val="{00000001-0552-48D4-A228-BEFBDF50752F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3140,8 +3529,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3151,17 +3552,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F24C-4FCF-86D8-C008AA63E524}"/>
+              <c16:uniqueId val="{00000002-0552-48D4-A228-BEFBDF50752F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3276,7 +3689,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F24C-4FCF-86D8-C008AA63E524}"/>
+                  <c16:uniqueId val="{00000003-0552-48D4-A228-BEFBDF50752F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3354,8 +3767,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3365,10 +3790,22 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,7 +3813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F24C-4FCF-86D8-C008AA63E524}"/>
+              <c16:uniqueId val="{00000004-0552-48D4-A228-BEFBDF50752F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3476,7 +3913,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3659,8 +4096,20 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3670,17 +4119,29 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3A0-4D0B-8C36-4441F7F26834}"/>
+              <c16:uniqueId val="{00000000-1477-4D19-88E3-7CB95AB0B84F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3717,8 +4178,20 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3728,17 +4201,29 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3A0-4D0B-8C36-4441F7F26834}"/>
+              <c16:uniqueId val="{00000001-1477-4D19-88E3-7CB95AB0B84F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3775,8 +4260,20 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3786,17 +4283,29 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B3A0-4D0B-8C36-4441F7F26834}"/>
+              <c16:uniqueId val="{00000002-1477-4D19-88E3-7CB95AB0B84F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3911,7 +4420,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B3A0-4D0B-8C36-4441F7F26834}"/>
+                  <c16:uniqueId val="{00000003-1477-4D19-88E3-7CB95AB0B84F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3989,8 +4498,20 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>神科所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4000,10 +4521,22 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,7 +4544,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B3A0-4D0B-8C36-4441F7F26834}"/>
+              <c16:uniqueId val="{00000004-1477-4D19-88E3-7CB95AB0B84F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4111,7 +4644,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4294,8 +4827,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4305,17 +4847,26 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-21F0-4B00-B9CA-9741D4888CE1}"/>
+              <c16:uniqueId val="{00000000-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4352,8 +4903,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4363,17 +4923,26 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21F0-4B00-B9CA-9741D4888CE1}"/>
+              <c16:uniqueId val="{00000001-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4410,8 +4979,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4421,17 +4999,26 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-21F0-4B00-B9CA-9741D4888CE1}"/>
+              <c16:uniqueId val="{00000002-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4546,7 +5133,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-21F0-4B00-B9CA-9741D4888CE1}"/>
+                  <c16:uniqueId val="{00000003-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4624,8 +5211,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>心理系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>應數系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應物所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4635,10 +5231,19 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4646,7 +5251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-21F0-4B00-B9CA-9741D4888CE1}"/>
+              <c16:uniqueId val="{00000004-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4746,7 +5351,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4875,7 +5480,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76FE3EB-073A-40BC-8740-1A5AB94BFB4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E03BCB-2876-4D1F-8036-C1480600724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4908,7 +5513,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328B53D5-2D89-4459-A433-95CD40FBB3CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D253F0-FABC-4A6B-A15F-E2162E6690B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +5546,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C0E243-E3D6-4D09-9CC6-19D076767FDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F02D9C-80B9-409B-B623-9D64FC03A8D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4974,7 +5579,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C9B3A4-783D-49B9-B291-D5AB01ACF4AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF86348-7F36-4BE7-8124-AA7D2CE38E36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5007,7 +5612,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E767F6-B6B6-40CE-85E9-A989EB2438E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08DC0D4-5C4F-42B7-B2C5-3C4A2A3AF72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5040,7 +5645,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEF7873-0CBB-418C-A6AF-00048A577948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A17D1D7-1140-4441-B776-0852261FDA4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5073,7 +5678,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6280591-5284-4DAE-A323-692A09B4E6F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1DDBE8-EB1C-499B-A588-3930FDAC786E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5400,7 +6005,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{98F4CBC6-2B1E-47FD-AF89-C08BE1531676}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C06D809F-93BF-4085-8AD1-ECE392C7883B}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5412,9 +6017,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA48AA-4817-4BD7-9F37-B87CB1574AC3}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD69A34A-3178-4973-BA9A-DA4AAE4004F6}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5428,281 +6033,425 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2.21</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.56</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2.08</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{FBF62CBB-4C38-4835-80D0-19FBDD24EB65}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{8841C9A0-2084-4E7D-B9F6-73CE0C8382AF}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{468DB7C7-C9DF-4C4A-A64D-236E9E09F5CF}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{454E4ECA-093E-4428-9535-FEA66CA7B9B0}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F9A7D639-1FCA-4254-8C08-EDD72CEE45BD}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{535E11AB-4F83-411B-9FDC-5E8157E7CF0F}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{555EBE5B-34E0-4DB6-BD58-6A0A14A6E2AE}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F5497EFD-6191-4B44-A1D4-BC6A3399A756}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{3BFA5F4D-C123-477C-A279-A5DA4132A87D}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{056159D4-834E-4443-BD44-703F23E307F9}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{DD94C089-B273-4CC6-BE98-DA3E83B3B5C7}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F3B4B415-58DC-4B19-BCA2-F1203AEFB4EC}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{65618E3B-37BE-4EF7-ACD7-150111FA44F4}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{06EBCF6B-C773-4DD9-A983-8C22F4E0D8E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF1101F-11F4-4018-84F0-05E3ED25CBE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487249D-ECE3-4053-A3A7-B7282BC33118}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.2034</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.1951</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.26669999999999999</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.2069</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.2162</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.1951</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.1633</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.2069</v>
+      </c>
+      <c r="G4" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+      <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5713,177 +6462,179 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C48F08-2D46-45F6-A71C-A0BD8FB467E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D337BB6-C9A4-489E-8CC6-8D943974E48C}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.66669999999999996</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.5333</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+      <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5894,177 +6645,177 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30A0897-28C3-481C-84CC-C991B9700633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3307D9ED-5DDF-4EA5-8FA4-B7DCDF9A673F}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>38598.54</v>
+      </c>
+      <c r="D2" s="11">
+        <v>36718.94</v>
+      </c>
+      <c r="E2" s="11">
+        <v>39649.589999999997</v>
+      </c>
+      <c r="F2" s="11">
+        <v>39986</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>30415.38</v>
+      </c>
+      <c r="D3" s="11">
+        <v>30206.85</v>
+      </c>
+      <c r="E3" s="11">
+        <v>28243.63</v>
+      </c>
+      <c r="F3" s="11">
+        <v>32712</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11">
+        <v>33191.129999999997</v>
+      </c>
+      <c r="D6" s="11">
+        <v>32687.64</v>
+      </c>
+      <c r="E6" s="11">
+        <v>32131.77</v>
+      </c>
+      <c r="F6" s="11">
+        <v>34618.550000000003</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+      <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6075,177 +6826,177 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831AF2C7-570B-46EB-8737-3AFA34B282D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F98FC7-73D0-4C6A-86B1-6FA9A59B50B1}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.2999999999999998</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3.18</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3.39</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2.67</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.76</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3.19</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3.38</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3.11</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.21</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+      <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6256,177 +7007,178 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72266C0E-A1A2-44FB-B13A-BCE348AF816D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43AE669-BB7C-4829-84F2-DF7AABD9099F}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>9.77</v>
+      </c>
+      <c r="D2" s="15">
+        <v>8.57</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10.57</v>
+      </c>
+      <c r="F2" s="15">
+        <v>10.16</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D3" s="15">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E3" s="15">
+        <v>8.64</v>
+      </c>
+      <c r="F3" s="15">
+        <v>7.58</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4.96</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.69</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.76</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5.57</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15">
+        <v>9.08</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="15">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+      <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6437,177 +7189,177 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA82D96E-F406-4F69-9DDE-5FCFDC36AC4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE31453A-B118-48B6-9D53-5E841BC2485A}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="2.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+      <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6618,177 +7370,178 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15538C27-96CA-4778-B823-C053A5A4C413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EEBA4B-8100-43A9-99BD-8AB9FFB3B24F}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-      <sortCondition descending="1" ref="G1:G6"/>
+      <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/理學院.xlsx
+++ b/test/1. 各院彙整資料/理學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F807DAE-78C5-4560-BC0F-7CFFDB2C95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5273FB-F378-4A5C-9CE0-EE0924CBCC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{87376FA0-FF56-4A6F-8523-BCA4BC267A1D}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{87376FA0-FF56-4A6F-8523-BCA4BC267A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$6</definedName>
@@ -170,42 +170,34 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為18.71%，無低於（或等於）院三年均值者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為53.33%，高於院三年均值者計有2個系，為應數系66.67%、心理系60%。</t>
   </si>
   <si>
     <t>院三年均值為33,191，高於院三年均值者計有1個系，為應數系38,599。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為3.19，低於院三年均值者計有3個系，為應物所2.5、神科所3、應數系3.18。</t>
   </si>
   <si>
     <t>院三年均值為9.08，高於院三年均值者計有1個系，為應數系9.77。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為53.33%，高於院三年均值者計有2個系，為應數系66.67%、心理系60%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為3.19，低於院三年均值者計有3個系，為應物所2.5、神科所3、應數系3.18。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為1，包含心理系1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為1.67，包含心理系0.67、應數系0.33、應物所0.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -214,10 +206,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -437,9 +429,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +562,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F23-45AA-9F63-90CEF1A6B29D}"/>
+              <c16:uniqueId val="{00000000-FFA2-4654-B182-37A74AFFA2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,7 +632,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F23-45AA-9F63-90CEF1A6B29D}"/>
+              <c16:uniqueId val="{00000001-FFA2-4654-B182-37A74AFFA2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -710,7 +702,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1F23-45AA-9F63-90CEF1A6B29D}"/>
+              <c16:uniqueId val="{00000002-FFA2-4654-B182-37A74AFFA2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -768,7 +760,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="2"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -823,9 +815,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1F23-45AA-9F63-90CEF1A6B29D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -937,7 +926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1F23-45AA-9F63-90CEF1A6B29D}"/>
+              <c16:uniqueId val="{00000004-FFA2-4654-B182-37A74AFFA2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1253,7 +1242,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEE6-4E4C-AEE7-68A798A07675}"/>
+              <c16:uniqueId val="{00000000-B065-4099-99EC-7EDC8FACDA3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1323,7 +1312,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CEE6-4E4C-AEE7-68A798A07675}"/>
+              <c16:uniqueId val="{00000001-B065-4099-99EC-7EDC8FACDA3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,7 +1382,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CEE6-4E4C-AEE7-68A798A07675}"/>
+              <c16:uniqueId val="{00000002-B065-4099-99EC-7EDC8FACDA3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1451,7 +1440,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="2"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1506,9 +1495,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CEE6-4E4C-AEE7-68A798A07675}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1620,7 +1606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CEE6-4E4C-AEE7-68A798A07675}"/>
+              <c16:uniqueId val="{00000004-B065-4099-99EC-7EDC8FACDA3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1948,7 +1934,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E1F-476D-A706-D65A444D63BB}"/>
+              <c16:uniqueId val="{00000000-C9E0-47AC-892D-AFFE2490BD97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2030,7 +2016,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E1F-476D-A706-D65A444D63BB}"/>
+              <c16:uniqueId val="{00000001-C9E0-47AC-892D-AFFE2490BD97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2112,7 +2098,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E1F-476D-A706-D65A444D63BB}"/>
+              <c16:uniqueId val="{00000002-C9E0-47AC-892D-AFFE2490BD97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2170,7 +2156,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2225,9 +2211,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0E1F-476D-A706-D65A444D63BB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2351,7 +2334,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0E1F-476D-A706-D65A444D63BB}"/>
+              <c16:uniqueId val="{00000004-C9E0-47AC-892D-AFFE2490BD97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2679,7 +2662,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7404-42E1-8DA3-391CD7859E79}"/>
+              <c16:uniqueId val="{00000000-53E0-43C3-B78C-66A22A47AC27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2761,7 +2744,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7404-42E1-8DA3-391CD7859E79}"/>
+              <c16:uniqueId val="{00000001-53E0-43C3-B78C-66A22A47AC27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2843,7 +2826,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7404-42E1-8DA3-391CD7859E79}"/>
+              <c16:uniqueId val="{00000002-53E0-43C3-B78C-66A22A47AC27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2901,7 +2884,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2956,9 +2939,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7404-42E1-8DA3-391CD7859E79}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3082,7 +3062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7404-42E1-8DA3-391CD7859E79}"/>
+              <c16:uniqueId val="{00000004-53E0-43C3-B78C-66A22A47AC27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3410,7 +3390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0552-48D4-A228-BEFBDF50752F}"/>
+              <c16:uniqueId val="{00000000-DC51-4E56-B2F6-DED97AEF9B2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3492,7 +3472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0552-48D4-A228-BEFBDF50752F}"/>
+              <c16:uniqueId val="{00000001-DC51-4E56-B2F6-DED97AEF9B2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3574,7 +3554,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0552-48D4-A228-BEFBDF50752F}"/>
+              <c16:uniqueId val="{00000002-DC51-4E56-B2F6-DED97AEF9B2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3632,7 +3612,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3687,9 +3667,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0552-48D4-A228-BEFBDF50752F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3813,7 +3790,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0552-48D4-A228-BEFBDF50752F}"/>
+              <c16:uniqueId val="{00000004-DC51-4E56-B2F6-DED97AEF9B2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4141,7 +4118,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1477-4D19-88E3-7CB95AB0B84F}"/>
+              <c16:uniqueId val="{00000000-17DE-4116-A7B3-2737E7DC10B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4223,7 +4200,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1477-4D19-88E3-7CB95AB0B84F}"/>
+              <c16:uniqueId val="{00000001-17DE-4116-A7B3-2737E7DC10B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4305,7 +4282,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1477-4D19-88E3-7CB95AB0B84F}"/>
+              <c16:uniqueId val="{00000002-17DE-4116-A7B3-2737E7DC10B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4363,7 +4340,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4418,9 +4395,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1477-4D19-88E3-7CB95AB0B84F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4544,7 +4518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1477-4D19-88E3-7CB95AB0B84F}"/>
+              <c16:uniqueId val="{00000004-17DE-4116-A7B3-2737E7DC10B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4866,7 +4840,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
+              <c16:uniqueId val="{00000000-BD83-4774-AAF4-49375374665D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4942,7 +4916,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
+              <c16:uniqueId val="{00000001-BD83-4774-AAF4-49375374665D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5018,7 +4992,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
+              <c16:uniqueId val="{00000002-BD83-4774-AAF4-49375374665D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5076,7 +5050,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5131,9 +5105,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5251,7 +5222,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-04EA-4FB1-A9FE-70E2F3AFAFDC}"/>
+              <c16:uniqueId val="{00000004-BD83-4774-AAF4-49375374665D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5480,7 +5451,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E03BCB-2876-4D1F-8036-C1480600724C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CB2FE7-39FF-4C0B-8D24-9B872861D3DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5513,7 +5484,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D253F0-FABC-4A6B-A15F-E2162E6690B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75F4464-297A-4F4B-97EB-0F61281D5CE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5546,7 +5517,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F02D9C-80B9-409B-B623-9D64FC03A8D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8E7C97-51D9-474F-80E3-E585B8BB3EE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5579,7 +5550,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF86348-7F36-4BE7-8124-AA7D2CE38E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904C44D7-5A1D-4A1A-BB1D-9C6297430B4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5612,7 +5583,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08DC0D4-5C4F-42B7-B2C5-3C4A2A3AF72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7604C1D7-45D6-4B39-ADC0-E15F0C528EAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5645,7 +5616,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A17D1D7-1140-4441-B776-0852261FDA4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E500A6-A95A-4266-ADFD-7073FEBCBFA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5678,7 +5649,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1DDBE8-EB1C-499B-A588-3930FDAC786E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29EB7FE-6273-4705-81B8-878A30EEEFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6072,16 +6043,16 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6092,16 +6063,16 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6112,16 +6083,16 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>3</v>
       </c>
     </row>
@@ -6132,16 +6103,16 @@
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6150,18 +6121,18 @@
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12">
+        <v>36</v>
+      </c>
+      <c r="C7" s="16">
         <v>1.5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>2.5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>2.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6172,16 +6143,16 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>3</v>
       </c>
     </row>
@@ -6192,16 +6163,16 @@
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6210,18 +6181,18 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="12">
+        <v>37</v>
+      </c>
+      <c r="C10" s="16">
         <v>1.5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>2.21</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>2.7</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -6232,16 +6203,16 @@
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6252,36 +6223,36 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>1.56</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>2.08</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>2.7</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>2.17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F5497EFD-6191-4B44-A1D4-BC6A3399A756}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{3BFA5F4D-C123-477C-A279-A5DA4132A87D}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{056159D4-834E-4443-BD44-703F23E307F9}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{DD94C089-B273-4CC6-BE98-DA3E83B3B5C7}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F3B4B415-58DC-4B19-BCA2-F1203AEFB4EC}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{65618E3B-37BE-4EF7-ACD7-150111FA44F4}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{06EBCF6B-C773-4DD9-A983-8C22F4E0D8E0}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F956E2FA-FA73-4938-8E4D-6503AF76CB26}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{D4530B70-5B39-4AF7-9BFD-2C0E8D589BC8}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{84BA213F-0775-4EC1-8FFF-3DB811004444}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{555D0A06-B847-4B63-B66E-B44603E73C7B}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F81F80C1-E3E4-4B3A-AA4C-8ECAFF8AB16E}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{EA740FA5-06F6-4641-9188-85C9C13D7264}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{1C76334E-3FF9-4DD3-8E51-5CA6DEB10295}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487249D-ECE3-4053-A3A7-B7282BC33118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D38E44-0C7B-4F50-871D-912589A168B9}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -6332,16 +6303,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.2034</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.1951</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.17019999999999999</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.26669999999999999</v>
       </c>
       <c r="G2" s="9">
@@ -6355,16 +6326,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.2069</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.21049999999999999</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.2162</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.1951</v>
       </c>
       <c r="G3" s="9">
@@ -6378,16 +6349,16 @@
       <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.18709999999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.20250000000000001</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.1633</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.2069</v>
       </c>
       <c r="G4" s="9">
@@ -6401,16 +6372,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6424,16 +6395,16 @@
       <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6451,7 +6422,7 @@
       <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6462,7 +6433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D337BB6-C9A4-489E-8CC6-8D943974E48C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DE0CA-1A0C-45F2-BFD6-1A5B975D22F2}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -6474,9 +6445,10 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6505,7 +6477,7 @@
         <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6515,16 +6487,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>0.5</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.66669999999999996</v>
       </c>
       <c r="G2" s="9">
@@ -6538,16 +6510,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>0.6</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>0.5</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>0.5</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
       <c r="G3" s="9">
@@ -6561,16 +6533,16 @@
       <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.5333</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>0.5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>0.5</v>
       </c>
       <c r="G4" s="9">
@@ -6584,16 +6556,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6607,16 +6579,16 @@
       <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6634,7 +6606,7 @@
       <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6645,7 +6617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3307D9ED-5DDF-4EA5-8FA4-B7DCDF9A673F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FD3392-138A-45D7-9F8C-EDF3564816F9}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -6657,7 +6629,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6686,7 +6658,7 @@
         <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6696,16 +6668,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>38598.54</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>36718.94</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>39649.589999999997</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>39986</v>
       </c>
       <c r="G2" s="9">
@@ -6719,16 +6691,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>30415.38</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>30206.85</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>28243.63</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>32712</v>
       </c>
       <c r="G3" s="9">
@@ -6742,16 +6714,16 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="9">
@@ -6765,16 +6737,16 @@
       <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="9">
@@ -6788,16 +6760,16 @@
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>33191.129999999997</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>32687.64</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>32131.77</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>34618.550000000003</v>
       </c>
       <c r="G6" s="9">
@@ -6826,7 +6798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F98FC7-73D0-4C6A-86B1-6FA9A59B50B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B462CC-241F-4480-8E7D-EE738B17BDC5}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -6838,7 +6810,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6867,7 +6839,7 @@
         <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6877,16 +6849,16 @@
       <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2.5</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>3.25</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2.2999999999999998</v>
       </c>
       <c r="G2" s="9">
@@ -6900,16 +6872,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="9">
@@ -6923,16 +6895,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>3.18</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>3.39</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>2.67</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>3.2</v>
       </c>
       <c r="G4" s="9">
@@ -6946,16 +6918,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.6</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>3.76</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>3.5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>3.5</v>
       </c>
       <c r="G5" s="9">
@@ -6969,16 +6941,16 @@
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3.19</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3.38</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>3.11</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3.21</v>
       </c>
       <c r="G6" s="9">
@@ -7007,7 +6979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43AE669-BB7C-4829-84F2-DF7AABD9099F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2191019F-F0C8-4F7E-9010-C3C533AEB30B}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -7019,8 +6991,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="4" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7049,7 +7021,7 @@
         <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7059,16 +7031,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>9.77</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>8.57</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>10.57</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>10.16</v>
       </c>
       <c r="G2" s="9">
@@ -7082,16 +7054,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>8.4499999999999993</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>8.64</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>7.58</v>
       </c>
       <c r="G3" s="9">
@@ -7105,16 +7077,16 @@
       <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>4.96</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>5.69</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3.76</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>5.57</v>
       </c>
       <c r="G4" s="9">
@@ -7128,16 +7100,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>3.25</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>4</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>4.71</v>
       </c>
       <c r="G5" s="9">
@@ -7151,16 +7123,16 @@
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>9.08</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>7.5</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>10.029999999999999</v>
       </c>
       <c r="G6" s="9">
@@ -7189,7 +7161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE31453A-B118-48B6-9D53-5E841BC2485A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694EB9BA-2475-462E-A1C6-3F3CB4611319}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -7201,7 +7173,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="2.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7240,16 +7212,16 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -7263,16 +7235,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
       <c r="G3" s="9">
@@ -7286,16 +7258,16 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
       <c r="G4" s="9">
@@ -7309,16 +7281,16 @@
       <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
       <c r="G5" s="9">
@@ -7332,16 +7304,16 @@
       <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
       <c r="G6" s="9">
@@ -7370,7 +7342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EEBA4B-8100-43A9-99BD-8AB9FFB3B24F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113799E9-C1FB-400D-AE27-18027B1D10AD}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -7382,8 +7354,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7422,16 +7393,16 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.67</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="9">
@@ -7445,16 +7416,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0.33</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
       <c r="G3" s="9">
@@ -7468,16 +7439,16 @@
       <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0.33</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="9">
@@ -7491,16 +7462,16 @@
       <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>1.67</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>2</v>
       </c>
       <c r="G5" s="9">
@@ -7514,16 +7485,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -7541,7 +7512,7 @@
       <sortCondition ref="G1:G6"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/理學院.xlsx
+++ b/test/1. 各院彙整資料/理學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5273FB-F378-4A5C-9CE0-EE0924CBCC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B17EFF9-9BB7-4358-9B17-63FB8158C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{87376FA0-FF56-4A6F-8523-BCA4BC267A1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{87376FA0-FF56-4A6F-8523-BCA4BC267A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$6</definedName>
@@ -562,7 +562,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FFA2-4654-B182-37A74AFFA2EE}"/>
+              <c16:uniqueId val="{00000000-D2D5-4DB8-961B-E282527A1A14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -632,7 +632,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FFA2-4654-B182-37A74AFFA2EE}"/>
+              <c16:uniqueId val="{00000001-D2D5-4DB8-961B-E282527A1A14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -702,7 +702,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FFA2-4654-B182-37A74AFFA2EE}"/>
+              <c16:uniqueId val="{00000002-D2D5-4DB8-961B-E282527A1A14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,7 +926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FFA2-4654-B182-37A74AFFA2EE}"/>
+              <c16:uniqueId val="{00000004-D2D5-4DB8-961B-E282527A1A14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1242,7 +1242,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B065-4099-99EC-7EDC8FACDA3C}"/>
+              <c16:uniqueId val="{00000000-BA14-4208-810B-711C53A3BCC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1312,7 +1312,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B065-4099-99EC-7EDC8FACDA3C}"/>
+              <c16:uniqueId val="{00000001-BA14-4208-810B-711C53A3BCC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,7 +1382,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B065-4099-99EC-7EDC8FACDA3C}"/>
+              <c16:uniqueId val="{00000002-BA14-4208-810B-711C53A3BCC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1606,7 +1606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B065-4099-99EC-7EDC8FACDA3C}"/>
+              <c16:uniqueId val="{00000004-BA14-4208-810B-711C53A3BCC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1934,7 +1934,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9E0-47AC-892D-AFFE2490BD97}"/>
+              <c16:uniqueId val="{00000000-6B29-4F6C-A472-F828A0831F9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2016,7 +2016,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9E0-47AC-892D-AFFE2490BD97}"/>
+              <c16:uniqueId val="{00000001-6B29-4F6C-A472-F828A0831F9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2098,7 +2098,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C9E0-47AC-892D-AFFE2490BD97}"/>
+              <c16:uniqueId val="{00000002-6B29-4F6C-A472-F828A0831F9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2334,7 +2334,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C9E0-47AC-892D-AFFE2490BD97}"/>
+              <c16:uniqueId val="{00000004-6B29-4F6C-A472-F828A0831F9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2662,7 +2662,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53E0-43C3-B78C-66A22A47AC27}"/>
+              <c16:uniqueId val="{00000000-C6FD-4EE5-AED2-B9B0F49A6134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2744,7 +2744,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-53E0-43C3-B78C-66A22A47AC27}"/>
+              <c16:uniqueId val="{00000001-C6FD-4EE5-AED2-B9B0F49A6134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2826,7 +2826,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-53E0-43C3-B78C-66A22A47AC27}"/>
+              <c16:uniqueId val="{00000002-C6FD-4EE5-AED2-B9B0F49A6134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3062,7 +3062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-53E0-43C3-B78C-66A22A47AC27}"/>
+              <c16:uniqueId val="{00000004-C6FD-4EE5-AED2-B9B0F49A6134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3390,7 +3390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC51-4E56-B2F6-DED97AEF9B2B}"/>
+              <c16:uniqueId val="{00000000-A87C-4F59-9EA4-7F5B1DB50493}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3472,7 +3472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DC51-4E56-B2F6-DED97AEF9B2B}"/>
+              <c16:uniqueId val="{00000001-A87C-4F59-9EA4-7F5B1DB50493}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3554,7 +3554,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DC51-4E56-B2F6-DED97AEF9B2B}"/>
+              <c16:uniqueId val="{00000002-A87C-4F59-9EA4-7F5B1DB50493}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3790,7 +3790,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DC51-4E56-B2F6-DED97AEF9B2B}"/>
+              <c16:uniqueId val="{00000004-A87C-4F59-9EA4-7F5B1DB50493}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4118,7 +4118,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17DE-4116-A7B3-2737E7DC10B6}"/>
+              <c16:uniqueId val="{00000000-5B89-4B6E-8B6E-BFFA8A488B26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4200,7 +4200,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-17DE-4116-A7B3-2737E7DC10B6}"/>
+              <c16:uniqueId val="{00000001-5B89-4B6E-8B6E-BFFA8A488B26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4282,7 +4282,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-17DE-4116-A7B3-2737E7DC10B6}"/>
+              <c16:uniqueId val="{00000002-5B89-4B6E-8B6E-BFFA8A488B26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4518,7 +4518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-17DE-4116-A7B3-2737E7DC10B6}"/>
+              <c16:uniqueId val="{00000004-5B89-4B6E-8B6E-BFFA8A488B26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4840,7 +4840,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD83-4774-AAF4-49375374665D}"/>
+              <c16:uniqueId val="{00000000-A178-4DDC-B434-138AF8A222B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4916,7 +4916,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD83-4774-AAF4-49375374665D}"/>
+              <c16:uniqueId val="{00000001-A178-4DDC-B434-138AF8A222B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4992,7 +4992,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD83-4774-AAF4-49375374665D}"/>
+              <c16:uniqueId val="{00000002-A178-4DDC-B434-138AF8A222B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5222,7 +5222,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD83-4774-AAF4-49375374665D}"/>
+              <c16:uniqueId val="{00000004-A178-4DDC-B434-138AF8A222B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5451,7 +5451,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CB2FE7-39FF-4C0B-8D24-9B872861D3DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFAE132-868B-45D0-BE58-4E7A45D55FA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5484,7 +5484,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75F4464-297A-4F4B-97EB-0F61281D5CE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0412802-B510-41AD-A7A6-9A28D0A18884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5517,7 +5517,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8E7C97-51D9-474F-80E3-E585B8BB3EE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EF25E-0439-4E30-80B5-84733A0BCCA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5550,7 +5550,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904C44D7-5A1D-4A1A-BB1D-9C6297430B4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C595D7-B4FE-4A08-B900-C469343CD8DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5583,7 +5583,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7604C1D7-45D6-4B39-ADC0-E15F0C528EAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E7FF17-8C72-42B5-817A-2F8AD2C60E67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5616,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E500A6-A95A-4266-ADFD-7073FEBCBFA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580F86FC-1830-4CF1-A384-05D05130A234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5649,7 +5649,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29EB7FE-6273-4705-81B8-878A30EEEFDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EACD4AC-A045-443A-9FF0-19626E3877CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6239,22 +6239,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F956E2FA-FA73-4938-8E4D-6503AF76CB26}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{D4530B70-5B39-4AF7-9BFD-2C0E8D589BC8}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{84BA213F-0775-4EC1-8FFF-3DB811004444}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{555D0A06-B847-4B63-B66E-B44603E73C7B}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F81F80C1-E3E4-4B3A-AA4C-8ECAFF8AB16E}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{EA740FA5-06F6-4641-9188-85C9C13D7264}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{1C76334E-3FF9-4DD3-8E51-5CA6DEB10295}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{E10969F9-DE8B-44B9-AABF-5A6AF10AE9D3}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{53FE6A79-A8C1-485A-91A0-2EED401DBCD5}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{9C00BD13-4660-45BC-B107-895ABEE25C06}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{3A2720B0-CC79-448D-BF61-D7C07C12D539}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F6D4A4F6-9609-4259-B709-D17EB3C233AC}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{AB5B89EC-F502-4C83-914B-D6447B155758}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{42DECB47-13F7-484F-98C5-43E7635295A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D38E44-0C7B-4F50-871D-912589A168B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA75CDC-FE3D-4840-87B6-7525A46E9EDA}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6270,7 +6271,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -6292,11 +6293,11 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -6433,9 +6434,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DE0CA-1A0C-45F2-BFD6-1A5B975D22F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6427DE15-8272-4512-AA63-F8AC1E7A61D9}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6454,7 +6455,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -6476,11 +6477,11 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -6617,9 +6618,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FD3392-138A-45D7-9F8C-EDF3564816F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3284F361-4723-48E6-992A-33FF57E0A3AF}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6635,7 +6636,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -6657,11 +6658,11 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -6753,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -6798,9 +6799,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B462CC-241F-4480-8E7D-EE738B17BDC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29B6BDE-049D-4A36-8466-CD5CE7E9DF24}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6816,7 +6817,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -6838,11 +6839,11 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -6979,9 +6980,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2191019F-F0C8-4F7E-9010-C3C533AEB30B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625B879C-C752-4F8B-B9EE-941032AE9092}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6998,7 +6999,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -7020,11 +7021,11 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7116,7 +7117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7161,9 +7162,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694EB9BA-2475-462E-A1C6-3F3CB4611319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D891F6C1-2391-49AA-972E-919800590791}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7179,7 +7180,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -7201,11 +7202,11 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7342,9 +7343,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113799E9-C1FB-400D-AE27-18027B1D10AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873F8104-2620-40B2-9358-D5474648B13D}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7360,7 +7361,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -7382,11 +7383,11 @@
       <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
